--- a/biology/Médecine/Réseau_de_santé/Réseau_de_santé.xlsx
+++ b/biology/Médecine/Réseau_de_santé/Réseau_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_de_sant%C3%A9</t>
+          <t>Réseau_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_de_sant%C3%A9</t>
+          <t>Réseau_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,10 +520,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nouveau-Brunswick
-Au Nouveau Brunswick, un réseau de santé est une régie régionale de la santé.
-Québec
-Au Québec, le terme réseau de santé désigne l'appareil administratif et sanitaire du Ministère de la Santé et des Services sociaux.
+          <t>Nouveau-Brunswick</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Nouveau Brunswick, un réseau de santé est une régie régionale de la santé.
 </t>
         </is>
       </c>
@@ -522,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_de_sant%C3%A9</t>
+          <t>Réseau_de_santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,10 +552,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, le terme réseau de santé désigne l'appareil administratif et sanitaire du Ministère de la Santé et des Services sociaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Réseau_de_santé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9seau_de_sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un réseau de santé est, en France, un acteur de santé dont la mission est définie par le Code de la santé publique. 
  Portail de la médecine   Portail du droit                    </t>
